--- a/plural_dictation.xlsx
+++ b/plural_dictation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AF20FD-FC8F-4027-B874-C60867CE1DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FB9B20-1FC5-418A-8221-138987E8B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14055" windowHeight="11385" xr2:uid="{53928D37-A16A-468F-8149-005BAD988439}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17235" windowHeight="11385" xr2:uid="{53928D37-A16A-468F-8149-005BAD988439}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="158">
   <si>
     <t>C11</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,503 @@
   </si>
   <si>
     <t>weekdays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fridges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrangements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speeches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brushes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>craps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exmaples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>causes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photographs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breeds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accidents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ducks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crafts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reseachs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>women</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>students</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subjects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>researchers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychologists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disciplines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assumptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoughts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>professors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biologists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotpots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperatures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mammals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>places</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scientists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocanos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sites</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carridals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oceans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efforts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concentrations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factors</t>
+  </si>
+  <si>
+    <t>years </t>
+  </si>
+  <si>
+    <t>hotspots</t>
+  </si>
+  <si>
+    <t>mammals</t>
+  </si>
+  <si>
+    <t>seals</t>
+  </si>
+  <si>
+    <t>places </t>
+  </si>
+  <si>
+    <t>oceans </t>
+  </si>
+  <si>
+    <t>boundaries </t>
+  </si>
+  <si>
+    <t>currents</t>
+  </si>
+  <si>
+    <t>species </t>
+  </si>
+  <si>
+    <t>researchers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">numbers </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">species </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">metres </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">octopus </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">scientists </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">habitats </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volcanoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nutrients </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">biologists </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">things </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">members </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oceans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reserves </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">places </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">seas </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sites </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">levels </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">boats </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF288AF-AC24-4754-8B89-75FF5B8DD2CC}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,24 +1031,24 @@
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -565,137 +1062,818 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H54" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H55" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H56" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H57" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H60" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H61" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H62" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plural_dictation.xlsx
+++ b/plural_dictation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FB9B20-1FC5-418A-8221-138987E8B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19DB05D-F404-4672-909E-9D724A546F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17235" windowHeight="11385" xr2:uid="{53928D37-A16A-468F-8149-005BAD988439}"/>
+    <workbookView xWindow="0" yWindow="2055" windowWidth="17235" windowHeight="11385" xr2:uid="{53928D37-A16A-468F-8149-005BAD988439}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="248">
   <si>
     <t>C11</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,6 +645,366 @@
   </si>
   <si>
     <t xml:space="preserve">boats </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lectures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobbies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lives</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggestions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opportunities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rooms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storerooms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meetings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conferences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>functions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puppets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possibilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websites</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>habits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aims</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organisms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>students</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemicals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pictures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amendments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>books</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>architects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purposes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valuations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ideas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vibrations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acoustics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curtains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efforts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF288AF-AC24-4754-8B89-75FF5B8DD2CC}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="D56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1856,19 +2216,430 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H65" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H66" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H67" s="1" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" t="s">
+        <v>191</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G71" t="s">
+        <v>223</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G72" t="s">
+        <v>224</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" t="s">
+        <v>159</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G73" t="s">
+        <v>225</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G74" t="s">
+        <v>226</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G75" t="s">
+        <v>227</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G76" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" t="s">
+        <v>195</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G77" t="s">
+        <v>228</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E78" t="s">
+        <v>196</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" t="s">
+        <v>229</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G79" t="s">
+        <v>230</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G80" t="s">
+        <v>231</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" t="s">
+        <v>200</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D86" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D88" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F91" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F92" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F93" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F94" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F95" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F96" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/plural_dictation.xlsx
+++ b/plural_dictation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19DB05D-F404-4672-909E-9D724A546F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8489D1-AF0E-473E-90BD-4AC2F79B6013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2055" windowWidth="17235" windowHeight="11385" xr2:uid="{53928D37-A16A-468F-8149-005BAD988439}"/>
+    <workbookView xWindow="7800" yWindow="1800" windowWidth="17235" windowHeight="11385" xr2:uid="{53928D37-A16A-468F-8149-005BAD988439}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="366">
   <si>
     <t>C11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Part1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1005,6 +1001,482 @@
   </si>
   <si>
     <t>efforts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ideas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>galleies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concerts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>places</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mushrooms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minutes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceramics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binoculars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varieties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>villages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passengers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cafes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supermarkets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>towns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dentists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colleges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constructions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>students</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>developments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fares</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incomes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedestrians</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bikes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attempts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vistis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>practices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journeys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patterns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggestions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>men</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>women</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clowns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpretations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colleagues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nurses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>records</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>researches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attitudes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>researchers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrepreneurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spreadsheets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospitals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respondents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartphones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>principles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF288AF-AC24-4754-8B89-75FF5B8DD2CC}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="E71" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1405,1241 +1877,1884 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
         <v>103</v>
       </c>
-      <c r="G28" t="s">
-        <v>104</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H36" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H41" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H42" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H43" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H47" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H48" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H65" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H66" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H67" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
         <v>2</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>3</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>4</v>
-      </c>
-      <c r="G70" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E80" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G80" t="s">
+        <v>230</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E80" t="s">
-        <v>198</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G80" t="s">
-        <v>231</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D81" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D84" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D86" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D87" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D88" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D90" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F91" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F92" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F93" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F95" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F96" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F97" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F97" s="1" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F98" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F98" s="1" t="s">
-        <v>222</v>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>250</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E102" t="s">
+        <v>321</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G102" t="s">
+        <v>333</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>251</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C103" t="s">
+        <v>271</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E103" t="s">
+        <v>322</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G103" t="s">
+        <v>321</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>252</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" t="s">
+        <v>272</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E104" t="s">
+        <v>323</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G104" t="s">
+        <v>334</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>253</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C105" t="s">
+        <v>273</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E105" t="s">
+        <v>324</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G105" t="s">
+        <v>295</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C106" t="s">
+        <v>274</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E106" t="s">
+        <v>325</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G106" t="s">
+        <v>335</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E107" t="s">
+        <v>326</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G107" t="s">
+        <v>336</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>256</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" t="s">
+        <v>276</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E108" t="s">
+        <v>250</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G108" t="s">
+        <v>337</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G109" t="s">
+        <v>338</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" t="s">
+        <v>278</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G110" t="s">
+        <v>339</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>259</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" t="s">
+        <v>279</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G111" t="s">
+        <v>273</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C112" t="s">
+        <v>280</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G112" t="s">
+        <v>340</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" t="s">
+        <v>281</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G113" t="s">
+        <v>341</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C114" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G114" t="s">
+        <v>252</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C115" t="s">
+        <v>283</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G115" t="s">
+        <v>250</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C116" t="s">
+        <v>284</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G116" t="s">
+        <v>258</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C117" t="s">
+        <v>285</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C118" t="s">
+        <v>286</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" t="s">
+        <v>287</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" t="s">
+        <v>288</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" t="s">
+        <v>289</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>290</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>291</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>292</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D125" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D126" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D127" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D128" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D129" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D130" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="131" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D131" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D132" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D133" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D134" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D135" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="136" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D136" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D137" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D138" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D139" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D140" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D141" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D142" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D143" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D144" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D145" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D146" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D147" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D148" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D149" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
